--- a/WellDetailsNew.xlsx
+++ b/WellDetailsNew.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="WellHeader" r:id="rId3" sheetId="1"/>
+    <sheet name="Casing" r:id="rId4" sheetId="2"/>
+    <sheet name="Completion" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="217">
   <si>
     <t>Well ID</t>
   </si>
@@ -65,7 +67,604 @@
     <t>Drill_Finished</t>
   </si>
   <si>
+    <t>35019212270001</t>
+  </si>
+  <si>
+    <t>CITATION OIL &amp; GAS CORPORATION</t>
+  </si>
+  <si>
+    <t>14156</t>
+  </si>
+  <si>
+    <t>GRAHAM DEESE UNIT 54-4</t>
+  </si>
+  <si>
+    <t>INJ</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>November 14, 1973</t>
+  </si>
+  <si>
+    <t>November 29, 1973</t>
+  </si>
+  <si>
+    <t>4190</t>
+  </si>
+  <si>
+    <t>STRAIGHT HOLE</t>
+  </si>
+  <si>
+    <t>August 30, 1974</t>
+  </si>
+  <si>
+    <t>35011240850000</t>
+  </si>
+  <si>
+    <t>NEWFIELD EXPLORATION MID-CON INC</t>
+  </si>
+  <si>
+    <t>20944</t>
+  </si>
+  <si>
+    <t>MARKS 1610 5H-4X</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>September 12, 2018</t>
+  </si>
+  <si>
+    <t>September 24, 2018</t>
+  </si>
+  <si>
+    <t>January 04, 2019</t>
+  </si>
+  <si>
+    <t>19572</t>
+  </si>
+  <si>
+    <t>HORIZONTAL HOLE</t>
+  </si>
+  <si>
+    <t>1/4/2019</t>
+  </si>
+  <si>
+    <t>December 23, 2019</t>
+  </si>
+  <si>
+    <t>35063247830000</t>
+  </si>
+  <si>
+    <t>CALYX ENERGY III LLC</t>
+  </si>
+  <si>
+    <t>23515</t>
+  </si>
+  <si>
+    <t>GREASY CREEK 28-1SWD</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>April 04, 2018</t>
+  </si>
+  <si>
+    <t>April 28, 2018</t>
+  </si>
+  <si>
+    <t>5598</t>
+  </si>
+  <si>
+    <t>May 07, 2018</t>
+  </si>
+  <si>
+    <t>35015360330000</t>
+  </si>
+  <si>
+    <t>LAKESHORE OPERATING LLC</t>
+  </si>
+  <si>
+    <t>23797</t>
+  </si>
+  <si>
+    <t>DELLA BELL 1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>PBTD</t>
+  </si>
+  <si>
+    <t>May 29, 1945</t>
+  </si>
+  <si>
+    <t>7630</t>
+  </si>
+  <si>
+    <t>4/16/19</t>
+  </si>
+  <si>
+    <t>November 30, 1945</t>
+  </si>
+  <si>
+    <t>35051241890000</t>
+  </si>
+  <si>
+    <t>ROAN RESOURCES LLC</t>
+  </si>
+  <si>
+    <t>24127</t>
+  </si>
+  <si>
+    <t>JO 26-35-10-6 1XH</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>20105</t>
+  </si>
+  <si>
+    <t>September 23, 2017</t>
+  </si>
+  <si>
+    <t>December 16, 2017</t>
+  </si>
+  <si>
+    <t>February 17, 2018</t>
+  </si>
+  <si>
+    <t>20205</t>
+  </si>
+  <si>
+    <t>2/17/18</t>
+  </si>
+  <si>
+    <t>35043224260000</t>
+  </si>
+  <si>
+    <t>MEADE ENERGY CORPORATION</t>
+  </si>
+  <si>
+    <t>15342</t>
+  </si>
+  <si>
+    <t>BURGESS 3-20</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>March 23, 1991</t>
+  </si>
+  <si>
+    <t>April 11, 1991</t>
+  </si>
+  <si>
+    <t>May 30, 1991</t>
+  </si>
+  <si>
+    <t>9680</t>
+  </si>
+  <si>
+    <t>11/8/18</t>
+  </si>
+  <si>
+    <t>June 09, 1991</t>
+  </si>
+  <si>
+    <t>35073261370000</t>
+  </si>
+  <si>
+    <t>STONE CREEK OPERATING LLC</t>
+  </si>
+  <si>
+    <t>24022</t>
+  </si>
+  <si>
+    <t>KOOPA 23 O5H</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>July 07, 2018</t>
+  </si>
+  <si>
+    <t>July 25, 2018</t>
+  </si>
+  <si>
+    <t>October 08, 2018</t>
+  </si>
+  <si>
+    <t>11671</t>
+  </si>
+  <si>
+    <t>10/13/2018</t>
+  </si>
+  <si>
+    <t>October 07, 2018</t>
+  </si>
+  <si>
+    <t>35137268740000</t>
+  </si>
+  <si>
+    <t>BANNER OIL &amp; GAS LLC</t>
+  </si>
+  <si>
+    <t>22792</t>
+  </si>
+  <si>
+    <t>ROYAL LOCO SAND UNIT Y-64</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>March 14, 2012</t>
+  </si>
+  <si>
+    <t>March 16, 2012</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>August 21, 2012</t>
+  </si>
+  <si>
+    <t>35133052940000</t>
+  </si>
+  <si>
+    <t>RKR EXPLORATION INC</t>
+  </si>
+  <si>
+    <t>21268</t>
+  </si>
+  <si>
+    <t>REED 1</t>
+  </si>
+  <si>
+    <t>DRY</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>3184</t>
+  </si>
+  <si>
+    <t>December 08, 1958</t>
+  </si>
+  <si>
+    <t>December 20, 1958</t>
+  </si>
+  <si>
+    <t>January 01, 1959</t>
+  </si>
+  <si>
+    <t>3270</t>
+  </si>
+  <si>
+    <t>35137267170000</t>
+  </si>
+  <si>
+    <t>CJ 25</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>March 08, 2010</t>
+  </si>
+  <si>
+    <t>March 10, 2010</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>April 20, 2010</t>
+  </si>
+  <si>
+    <t>35027354810002</t>
+  </si>
+  <si>
+    <t>SUMMIT OIL COMPANY INC</t>
+  </si>
+  <si>
+    <t>19192</t>
+  </si>
+  <si>
+    <t>STOTTS (STOTTS 3) 3-30</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>8650</t>
+  </si>
+  <si>
+    <t>March 07, 1948</t>
+  </si>
+  <si>
+    <t>June 28, 1948</t>
+  </si>
+  <si>
+    <t>8775</t>
+  </si>
+  <si>
+    <t>10/26/2019</t>
+  </si>
+  <si>
+    <t>35137267970000</t>
+  </si>
+  <si>
+    <t>RLSU Y-56</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>994</t>
+  </si>
+  <si>
+    <t>June 13, 2011</t>
+  </si>
+  <si>
+    <t>June 15, 2011</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>September 07, 2011</t>
+  </si>
+  <si>
+    <t>35103247540000</t>
+  </si>
+  <si>
+    <t>PALM OIL &amp; GAS COMPANY</t>
+  </si>
+  <si>
+    <t>15874</t>
+  </si>
+  <si>
+    <t>ODENWALD 5-32</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>April 29, 2019</t>
+  </si>
+  <si>
+    <t>May 05, 2019</t>
+  </si>
+  <si>
+    <t>November 05, 2019</t>
+  </si>
+  <si>
+    <t>4470</t>
+  </si>
+  <si>
+    <t>November 01, 2019</t>
+  </si>
+  <si>
+    <t>35017254600000</t>
+  </si>
+  <si>
+    <t>RED BLUFF RESOURCES OPERATING LLC</t>
+  </si>
+  <si>
+    <t>23828</t>
+  </si>
+  <si>
+    <t>BIG MUDDIE 1405 1-32WH</t>
+  </si>
+  <si>
+    <t>June 01, 2019</t>
+  </si>
+  <si>
+    <t>August 10, 2019</t>
+  </si>
+  <si>
+    <t>October 12, 2019</t>
+  </si>
+  <si>
+    <t>13357</t>
+  </si>
+  <si>
+    <t>9/12/19</t>
+  </si>
+  <si>
+    <t>35051246220002</t>
+  </si>
+  <si>
+    <t>TRAVIS PEAK RESOURCES LLC</t>
+  </si>
+  <si>
+    <t>23914</t>
+  </si>
+  <si>
+    <t>BLUE HORSESHOE 36_25_24-8N-6W 1MHX</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>May 09, 2019</t>
+  </si>
+  <si>
+    <t>July 21, 2019</t>
+  </si>
+  <si>
+    <t>September 15, 2019</t>
+  </si>
+  <si>
+    <t>23045</t>
+  </si>
+  <si>
+    <t>9/15/2019</t>
+  </si>
+  <si>
+    <t>September 04, 2019</t>
+  </si>
+  <si>
+    <t>35045238020000</t>
+  </si>
+  <si>
+    <t>DUNCAN OIL PROPERTIES INC</t>
+  </si>
+  <si>
+    <t>15876</t>
+  </si>
+  <si>
+    <t>DLD FARMS 1-20HX</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2394</t>
+  </si>
+  <si>
+    <t>June 13, 2019</t>
+  </si>
+  <si>
+    <t>July 22, 2019</t>
+  </si>
+  <si>
+    <t>September 13, 2019</t>
+  </si>
+  <si>
+    <t>17140</t>
+  </si>
+  <si>
+    <t>09/13/2019</t>
+  </si>
+  <si>
+    <t>September 12, 2019</t>
+  </si>
+  <si>
+    <t>35007220830001</t>
+  </si>
+  <si>
+    <t>STRAT LAND EXPLORATION COMPANY</t>
+  </si>
+  <si>
+    <t>13952</t>
+  </si>
+  <si>
+    <t>MEIER 1</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
+  <si>
+    <t>2760</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>February 15, 1981</t>
+  </si>
+  <si>
+    <t>March 05, 1981</t>
+  </si>
+  <si>
+    <t>April 22, 1981</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>08/27/2019</t>
+  </si>
+  <si>
+    <t>April 01, 1981</t>
+  </si>
+  <si>
+    <t>Casing Size</t>
+  </si>
+  <si>
+    <t>Nominal Weight</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Top of Cement</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>SAX</t>
+  </si>
+  <si>
+    <t>Completion Type</t>
   </si>
 </sst>
 </file>
@@ -111,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -175,158 +774,960 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
